--- a/data/evaluation/evaluation_Center_Summer_Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3519.947733663099</v>
+        <v>3438.044658007447</v>
       </c>
       <c r="C4" t="n">
-        <v>49547127.58783168</v>
+        <v>46296617.44198564</v>
       </c>
       <c r="D4" t="n">
-        <v>7038.972054769907</v>
+        <v>6804.161773648952</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1687167059620254</v>
+        <v>-0.09204373428238521</v>
       </c>
     </row>
     <row r="5">
